--- a/Robot Cuentas por Cobrar/Config - Copy/Config.xlsx
+++ b/Robot Cuentas por Cobrar/Config - Copy/Config.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
